--- a/Amazon login.xlsx
+++ b/Amazon login.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\comp\Desktop\manual testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\comp\Desktop\gitdocument\opencart1\opencart123\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE89BD63-2BD2-4503-B120-825D6F00BBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8454A96-7DCC-4D84-9540-6D6E57E8EAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3324" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{0973E7EB-CBFD-4466-BE9C-DE3EDC53A314}"/>
+    <workbookView xWindow="108" yWindow="2232" windowWidth="13056" windowHeight="8880" activeTab="2" xr2:uid="{0973E7EB-CBFD-4466-BE9C-DE3EDC53A314}"/>
   </bookViews>
   <sheets>
     <sheet name="Amazon Login Test Senarioes" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -296,9 +295,6 @@
     <t>Verify the UserID and Password Sucessfully display</t>
   </si>
   <si>
-    <t>Blank</t>
-  </si>
-  <si>
     <t>Empty</t>
   </si>
   <si>
@@ -429,6 +425,9 @@
   </si>
   <si>
     <t>Negative Functional Test Case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blank </t>
   </si>
 </sst>
 </file>
@@ -639,7 +638,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -697,7 +696,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1183,7 +1181,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -1289,7 +1287,7 @@
         <v>40</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.35">
@@ -1297,7 +1295,7 @@
         <v>41</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.35">
@@ -1333,7 +1331,7 @@
         <v>48</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.35">
@@ -1363,7 +1361,7 @@
         <v>54</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.35">
@@ -1397,7 +1395,7 @@
         <v>62</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>63</v>
@@ -1468,14 +1466,14 @@
     </row>
     <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="21" t="s">
         <v>73</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>74</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E21" s="21" t="s">
         <v>64</v>
@@ -1488,11 +1486,11 @@
     <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="21"/>
       <c r="B22" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C22" s="22"/>
       <c r="D22" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E22" s="21" t="s">
         <v>64</v>
@@ -1504,17 +1502,17 @@
     </row>
     <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F23" s="21" t="s">
         <v>65</v>
@@ -1523,17 +1521,17 @@
     </row>
     <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="21" t="s">
         <v>76</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>77</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F24" s="21" t="s">
         <v>65</v>
@@ -1542,14 +1540,14 @@
     </row>
     <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C25" s="21"/>
       <c r="D25" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E25" s="21" t="s">
         <v>64</v>
@@ -1561,17 +1559,17 @@
     </row>
     <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="21" t="s">
         <v>82</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>83</v>
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="21" t="s">
         <v>84</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>85</v>
       </c>
       <c r="F26" s="21" t="s">
         <v>65</v>
@@ -1580,15 +1578,15 @@
     </row>
     <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="16" t="s">
         <v>86</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B28" s="18">
         <v>44805</v>
@@ -1596,18 +1594,18 @@
     </row>
     <row r="29" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="16" t="s">
         <v>89</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="16" t="s">
         <v>91</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="18" x14ac:dyDescent="0.35">
@@ -1629,8 +1627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2934495B-D52C-4F4A-8295-DE6688B87DFC}">
   <dimension ref="A3:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1648,7 +1646,7 @@
         <v>40</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.35">
@@ -1656,7 +1654,7 @@
         <v>41</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.35">
@@ -1692,7 +1690,7 @@
         <v>48</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.35">
@@ -1722,7 +1720,7 @@
         <v>54</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.3">
@@ -1756,7 +1754,7 @@
         <v>62</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>63</v>
@@ -1774,11 +1772,11 @@
       <c r="B16" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="27" t="s">
         <v>67</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
@@ -1787,13 +1785,13 @@
     <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="21"/>
       <c r="B17" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C17" s="22">
         <v>321</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>64</v>
@@ -1805,13 +1803,13 @@
     </row>
     <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>110</v>
+        <v>72</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>109</v>
       </c>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
@@ -1821,7 +1819,7 @@
     <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="21"/>
       <c r="B19" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C19" s="21">
         <v>123</v>
@@ -1833,16 +1831,16 @@
     </row>
     <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>110</v>
+        <v>106</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>109</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>64</v>
@@ -1855,13 +1853,13 @@
     <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="21"/>
       <c r="B21" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" s="22">
         <v>321</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E21" s="21" t="s">
         <v>64</v>
@@ -1873,16 +1871,16 @@
     </row>
     <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B22" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="21" t="s">
-        <v>72</v>
-      </c>
       <c r="D22" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E22" s="21" t="s">
         <v>64</v>
@@ -1894,16 +1892,16 @@
     </row>
     <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>113</v>
+        <v>110</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>112</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E23" s="21" t="s">
         <v>64</v>
@@ -1915,10 +1913,10 @@
     </row>
     <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C24" s="21">
         <v>789</v>
@@ -1930,15 +1928,15 @@
     </row>
     <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="16" t="s">
         <v>86</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B26" s="18">
         <v>44805</v>
@@ -1946,22 +1944,22 @@
     </row>
     <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B27" s="16" t="s">
+    </row>
+    <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A28" s="29" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A28" s="30" t="s">
+      <c r="B28" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="30" t="s">
-        <v>92</v>
-      </c>
     </row>
     <row r="29" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A29" s="29"/>
+      <c r="A29" s="28"/>
     </row>
   </sheetData>
   <hyperlinks>
